--- a/Senior Design Dashboard/Shelf Data.xlsx
+++ b/Senior Design Dashboard/Shelf Data.xlsx
@@ -1,87 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ortho\SD Prototpye\Senior Design Dashboard\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40E1BF9-18C7-4AF4-9007-161AD5BB2B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8BF96E87-1B1A-49C9-AC58-B778DC0FB6A5}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Shelf 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Shelf 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Shelf 3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shelf 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shelf 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shelf 3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
-  <si>
-    <t>Location Number</t>
-  </si>
-  <si>
-    <t>ELN Number</t>
-  </si>
-  <si>
-    <t>02823232</t>
-  </si>
-  <si>
-    <t>06606476</t>
-  </si>
-  <si>
-    <t>02995553</t>
-  </si>
-  <si>
-    <t>06071328</t>
-  </si>
-  <si>
-    <t>07336784</t>
-  </si>
-  <si>
-    <t>Experation Date</t>
-  </si>
-  <si>
-    <t>Arrival Date</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,26 +48,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -419,919 +426,908 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BF790C-A656-4214-AA7F-DC283278718A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col width="15.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.1796875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="12.1796875" customWidth="1" min="3" max="3"/>
+    <col width="15.90625" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Location Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ELN Number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Arrival Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Experation Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>02823232</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>43124</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>44617</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>72797667</v>
-      </c>
-      <c r="C2" s="3">
-        <v>43106</v>
-      </c>
-      <c r="D2" s="3">
-        <v>44615</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>43124</v>
-      </c>
-      <c r="D3" s="3">
-        <v>44617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>43151</v>
-      </c>
-      <c r="D4" s="3">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="2" t="n">
         <v>93340412</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="3" t="n">
         <v>43280</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="n">
         <v>44882</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="2" t="n">
         <v>91113915</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="3" t="n">
         <v>43315</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="3" t="n">
         <v>45062</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="2" t="n">
         <v>19654207</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="3" t="n">
         <v>43445</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="n">
         <v>45086</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="n">
         <v>96913294</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="3" t="n">
         <v>43497</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="3" t="n">
         <v>45112</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="n">
         <v>83353735</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="3" t="n">
         <v>43557</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="n">
         <v>45156</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="2" t="n">
         <v>59163771</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="3" t="n">
         <v>43588</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="n">
         <v>45159</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
-        <v>710933258</v>
-      </c>
-      <c r="C23" s="3">
-        <v>43674</v>
-      </c>
-      <c r="D23" s="3">
-        <v>45174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="3" t="n"/>
+      <c r="D23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="B24" s="2" t="n"/>
+      <c r="C24" s="3" t="n"/>
+      <c r="D24" s="3" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="n">
         <v>66450098</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="3" t="n">
         <v>43803</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="3" t="n">
         <v>45215</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="2" t="n">
         <v>85204501</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="3" t="n">
         <v>43866</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="n">
         <v>45291</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="B27" s="2" t="n"/>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="B28" s="2" t="n"/>
+      <c r="C28" s="3" t="n"/>
+      <c r="D28" s="3" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="B29" s="2" t="n"/>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="B30" s="2" t="n"/>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="3" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="2" t="n">
         <v>88943269</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="3" t="n">
         <v>43923</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="n">
         <v>45525</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="2" t="n">
         <v>783102242</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="3" t="n">
         <v>43924</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="n">
         <v>45603</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
-        <v>33624159</v>
-      </c>
-      <c r="C34" s="3">
-        <v>43983</v>
-      </c>
-      <c r="D34" s="3">
-        <v>45608</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="B34" s="2" t="n"/>
+      <c r="C34" s="3" t="n"/>
+      <c r="D34" s="3" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="2" t="n">
         <v>832208510</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="3" t="n">
         <v>44180</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="n">
         <v>45782</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="B36" s="2" t="n"/>
+      <c r="C36" s="3" t="n"/>
+      <c r="D36" s="3" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="B37" s="2" t="n"/>
+      <c r="C37" s="3" t="n"/>
+      <c r="D37" s="3" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="B38" s="2" t="n"/>
+      <c r="C38" s="3" t="n"/>
+      <c r="D38" s="3" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>02995553</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n">
         <v>44204</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="3" t="n">
         <v>45806</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="2" t="n">
         <v>33526741</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="3" t="n">
         <v>44253</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="3" t="n">
         <v>45818</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
-        <v>245710623</v>
-      </c>
-      <c r="C41" s="3">
-        <v>44284</v>
-      </c>
-      <c r="D41" s="3">
-        <v>45843</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+      <c r="B41" s="2" t="n"/>
+      <c r="C41" s="3" t="n"/>
+      <c r="D41" s="3" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="B42" s="2" t="n"/>
+      <c r="C42" s="3" t="n"/>
+      <c r="D42" s="3" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="2" t="n">
         <v>87149764</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="3" t="n">
         <v>44376</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="n">
         <v>45905</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+      <c r="B44" s="2" t="n"/>
+      <c r="C44" s="3" t="n"/>
+      <c r="D44" s="3" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="2" t="n">
         <v>91441163</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="3" t="n">
         <v>44440</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="n">
         <v>45975</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="46">
+      <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
-        <v>50646162</v>
-      </c>
-      <c r="C46" s="3">
-        <v>44501</v>
-      </c>
-      <c r="D46" s="3">
-        <v>46001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="B46" s="2" t="n"/>
+      <c r="C46" s="3" t="n"/>
+      <c r="D46" s="3" t="n"/>
+    </row>
+    <row r="47">
+      <c r="C47" s="3" t="n"/>
+      <c r="D47" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B3" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2920F9D-4699-48E1-90E5-E73B1A8913B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col width="15.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.1796875" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Location Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ELN Number</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="n">
         <v>83429636</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="n">
         <v>410887770</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="n">
         <v>27416929</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="n">
         <v>77913776</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="n">
         <v>48508690</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="n">
         <v>108058136</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="n">
         <v>3010222102</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>52225874</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="n">
         <v>17679963</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="n">
         <v>966122410</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="n">
         <v>74372596</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="n">
         <v>8110451060</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="n">
         <v>58195292</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>06071328</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="2" t="n">
         <v>50569869</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>07336784</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="2" t="n">
         <v>48086264</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="n">
         <v>70161182</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="2" t="n">
         <v>32071563</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="n">
         <v>75248455</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="2" t="n">
         <v>108807242</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="2" t="n">
         <v>201810199</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="2" t="n">
         <v>810864240</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="n">
         <v>72880135</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="2" t="n">
         <v>875106724</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="2" t="n">
         <v>236812107</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="2" t="n">
         <v>1574265</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>8115101043</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="2" t="n">
         <v>105272733</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="2" t="n">
         <v>97733908</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="2" t="n">
         <v>40164071</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="2" t="n">
         <v>64436428</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="2" t="n">
         <v>39391845</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="2" t="n">
         <v>88946722</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="2" t="n">
         <v>76565908</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="2" t="n">
         <v>27164662</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="2" t="n">
         <v>239131072</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="2" t="n">
         <v>18855330</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="2" t="n">
         <v>910209750</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="2" t="n">
         <v>13230077</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="2" t="n">
         <v>45341358</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="43">
+      <c r="A43" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="2" t="n">
         <v>3108231051</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="2" t="n">
         <v>893210863</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="45">
+      <c r="A45" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="2" t="n">
         <v>191855010</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="46">
+      <c r="A46" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="2" t="n">
         <v>410985681</v>
       </c>
     </row>
@@ -1341,384 +1337,392 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51886933-D42F-47B5-90AA-9D9E3E1E10DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col width="15.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.1796875" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Location Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ELN Number</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="n">
         <v>731531081</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="n">
         <v>19990734</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="n">
         <v>84124408</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="n">
         <v>62789855</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="n">
         <v>18354489</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="n">
         <v>40642987</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="n">
         <v>5102751006</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>32513717</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="n">
         <v>35612326</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="n">
         <v>24810873</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="n">
         <v>200310798</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="n">
         <v>952107674</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="n">
         <v>501681103</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="2" t="n">
         <v>109899574</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="2" t="n">
         <v>55844176</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="2" t="n">
         <v>29410962</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="2" t="n">
         <v>759889109</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="n">
         <v>6751058108</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="2" t="n">
         <v>48965710</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="n">
         <v>83483155</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="2" t="n">
         <v>21097236</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="2" t="n">
         <v>59264803</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="2" t="n">
         <v>16884999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="n">
         <v>511041104</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="2" t="n">
         <v>7934727</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="2" t="n">
         <v>110923686</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="2" t="n">
         <v>22333701</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>109157128</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="2" t="n">
         <v>97566942</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="2" t="n">
         <v>74920873</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="2" t="n">
         <v>79895442</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="2" t="n">
         <v>43039684</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="2" t="n">
         <v>25037303</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="2" t="n">
         <v>45570387</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="2" t="n">
         <v>236321099</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="2" t="n">
         <v>66542121</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="2" t="n">
         <v>87669926</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="2" t="n">
         <v>37365614</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="2" t="n">
         <v>57193927</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="2" t="n">
         <v>61598666</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="2" t="n">
         <v>1010945649</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="43">
+      <c r="A43" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="2" t="n">
         <v>37582516</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="2" t="n">
         <v>56217126</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="45">
+      <c r="A45" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="2" t="n">
         <v>69092672</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="46">
+      <c r="A46" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="2" t="n">
         <v>4723665</v>
       </c>
     </row>

--- a/Senior Design Dashboard/Shelf Data.xlsx
+++ b/Senior Design Dashboard/Shelf Data.xlsx
@@ -1,35 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ortho\OneDrive - stevens.edu\Documents\GitHub\SD_Infineum\Senior Design Dashboard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0303CBFD-2304-4C51-B13C-EC40280494FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shelf 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shelf 2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shelf 3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Shelf 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Shelf 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Shelf 3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+  <si>
+    <t>Location Number</t>
+  </si>
+  <si>
+    <t>ELN Number</t>
+  </si>
+  <si>
+    <t>Arrival Date</t>
+  </si>
+  <si>
+    <t>Experation Date</t>
+  </si>
+  <si>
+    <t>2022-01-15 00:00:00</t>
+  </si>
+  <si>
+    <t>2025-05-03 00:00:00</t>
+  </si>
+  <si>
+    <t>06606476</t>
+  </si>
+  <si>
+    <t>02995553</t>
+  </si>
+  <si>
+    <t>06071328</t>
+  </si>
+  <si>
+    <t>07336784</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,85 +88,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -426,511 +407,531 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="15.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.1796875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="12.1796875" customWidth="1" min="3" max="3"/>
-    <col width="15.90625" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Location Number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ELN Number</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Arrival Date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Experation Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>02823232</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>43124</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>44617</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>72797667</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43106</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44615</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="C4" s="3">
+        <v>43151</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>93340412</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="3">
         <v>43280</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="3">
         <v>44882</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>91113915</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="3">
         <v>43315</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="3">
         <v>45062</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="3" t="n"/>
-      <c r="D17" s="3" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>19654207</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="3">
         <v>43445</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="3">
         <v>45086</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>96913294</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="3">
         <v>43497</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="3">
         <v>45112</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="3" t="n"/>
-      <c r="D20" s="3" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>83353735</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="3">
         <v>43557</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="3">
         <v>45156</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>59163771</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="3">
         <v>43588</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="3">
         <v>45159</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="3" t="n"/>
-      <c r="D23" s="3" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="B23" s="2">
+        <v>710933258</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43674</v>
+      </c>
+      <c r="D23" s="3">
+        <v>45174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="n"/>
-      <c r="C24" s="3" t="n"/>
-      <c r="D24" s="3" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="2">
         <v>66450098</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="3">
         <v>43803</v>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="D25" s="3">
         <v>45215</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>85204501</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="3">
         <v>43866</v>
       </c>
-      <c r="D26" s="3" t="n">
+      <c r="D26" s="3">
         <v>45291</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="n"/>
-      <c r="C27" s="3" t="n"/>
-      <c r="D27" s="3" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="n"/>
-      <c r="C28" s="3" t="n"/>
-      <c r="D28" s="3" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="3" t="n"/>
-      <c r="D29" s="3" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="3" t="n"/>
-      <c r="D30" s="3" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="3" t="n"/>
-      <c r="D31" s="3" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="2">
         <v>88943269</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="3">
         <v>43923</v>
       </c>
-      <c r="D32" s="3" t="n">
+      <c r="D32" s="3">
         <v>45525</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="2">
         <v>783102242</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="3">
         <v>43924</v>
       </c>
-      <c r="D33" s="3" t="n">
+      <c r="D33" s="3">
         <v>45603</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="n"/>
-      <c r="C34" s="3" t="n"/>
-      <c r="D34" s="3" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="B34" s="2">
+        <v>33624159</v>
+      </c>
+      <c r="C34" s="3">
+        <v>43983</v>
+      </c>
+      <c r="D34" s="3">
+        <v>45608</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="2">
         <v>832208510</v>
       </c>
-      <c r="C35" s="3" t="n">
+      <c r="C35" s="3">
         <v>44180</v>
       </c>
-      <c r="D35" s="3" t="n">
+      <c r="D35" s="3">
         <v>45782</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="n"/>
-      <c r="C36" s="3" t="n"/>
-      <c r="D36" s="3" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="n"/>
-      <c r="C37" s="3" t="n"/>
-      <c r="D37" s="3" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="n"/>
-      <c r="C38" s="3" t="n"/>
-      <c r="D38" s="3" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>02995553</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="n">
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3">
         <v>44204</v>
       </c>
-      <c r="D39" s="3" t="n">
+      <c r="D39" s="3">
         <v>45806</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="2">
         <v>33526741</v>
       </c>
-      <c r="C40" s="3" t="n">
+      <c r="C40" s="3">
         <v>44253</v>
       </c>
-      <c r="D40" s="3" t="n">
+      <c r="D40" s="3">
         <v>45818</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="n"/>
-      <c r="C41" s="3" t="n"/>
-      <c r="D41" s="3" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="B41" s="2">
+        <v>245710623</v>
+      </c>
+      <c r="C41" s="3">
+        <v>44284</v>
+      </c>
+      <c r="D41" s="3">
+        <v>45843</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="n"/>
-      <c r="C42" s="3" t="n"/>
-      <c r="D42" s="3" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="2">
         <v>87149764</v>
       </c>
-      <c r="C43" s="3" t="n">
+      <c r="C43" s="3">
         <v>44376</v>
       </c>
-      <c r="D43" s="3" t="n">
+      <c r="D43" s="3">
         <v>45905</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="n"/>
-      <c r="C44" s="3" t="n"/>
-      <c r="D44" s="3" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>91441163</v>
-      </c>
-      <c r="C45" s="3" t="n">
-        <v>44440</v>
-      </c>
-      <c r="D45" s="3" t="n">
-        <v>45975</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="n"/>
-      <c r="C46" s="3" t="n"/>
-      <c r="D46" s="3" t="n"/>
-    </row>
-    <row r="47">
-      <c r="C47" s="3" t="n"/>
-      <c r="D47" s="3" t="n"/>
+      <c r="B46" s="2">
+        <v>50646162</v>
+      </c>
+      <c r="C46" s="3">
+        <v>44501</v>
+      </c>
+      <c r="D46" s="3">
+        <v>46001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -938,396 +939,384 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="15.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.1796875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Location Number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ELN Number</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>46</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>83429636</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>47</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>410887770</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>48</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>27416929</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>49</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>77913776</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>50</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>48508690</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>51</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>108058136</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>52</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>3010222102</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>53</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>52225874</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>54</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>17679963</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>55</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>966122410</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>56</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>74372596</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>57</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>8110451060</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>58</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>58195292</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>59</v>
       </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>06071328</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>60</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>50569869</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>61</v>
       </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>07336784</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>62</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>48086264</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>63</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>70161182</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>64</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>32071563</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>65</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>75248455</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>66</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>108807242</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>67</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="2">
         <v>201810199</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>68</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2">
         <v>810864240</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>69</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="2">
         <v>72880135</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>70</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>875106724</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>71</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="2">
         <v>236812107</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>72</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="2">
         <v>1574265</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>73</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="2">
         <v>8115101043</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>74</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="2">
         <v>105272733</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <v>75</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="2">
         <v>97733908</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>76</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="2">
         <v>40164071</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>77</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="2">
         <v>64436428</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>78</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="2">
         <v>39391845</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>79</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="2">
         <v>88946722</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>80</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="2">
         <v>76565908</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>81</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="2">
         <v>27164662</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>82</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="2">
         <v>239131072</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>83</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="2">
         <v>18855330</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>84</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="2">
         <v>910209750</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>85</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="2">
         <v>13230077</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>86</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="2">
         <v>45341358</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>87</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="2">
         <v>3108231051</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>88</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="2">
         <v>893210863</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <v>89</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="2">
         <v>191855010</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <v>90</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="2">
         <v>410985681</v>
       </c>
     </row>
@@ -1337,392 +1326,384 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="15.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.1796875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Location Number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ELN Number</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>91</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>731531081</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>92</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>19990734</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>93</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>84124408</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>94</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>62789855</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>95</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>18354489</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>96</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>40642987</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>97</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>5102751006</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>98</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>32513717</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>99</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>35612326</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>100</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>24810873</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>101</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>200310798</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>102</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>952107674</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>103</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>501681103</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>104</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>109899574</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>105</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>55844176</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>106</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>29410962</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>107</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>759889109</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>108</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>6751058108</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>109</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>48965710</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>110</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>83483155</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>111</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>21097236</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>112</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="2">
         <v>59264803</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>113</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2">
         <v>16884999</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>114</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="2">
         <v>511041104</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>115</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>7934727</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>116</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="2">
         <v>110923686</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>117</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="2">
         <v>22333701</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>118</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="2">
         <v>109157128</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>119</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="2">
         <v>97566942</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <v>120</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="2">
         <v>74920873</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>121</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="2">
         <v>79895442</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>122</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="2">
         <v>43039684</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>123</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="2">
         <v>25037303</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>124</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="2">
         <v>45570387</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>125</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="2">
         <v>236321099</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>126</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="2">
         <v>66542121</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>127</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="2">
         <v>87669926</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>128</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="2">
         <v>37365614</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>129</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="2">
         <v>57193927</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>130</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="2">
         <v>61598666</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>131</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="2">
         <v>1010945649</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>132</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="2">
         <v>37582516</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>133</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="2">
         <v>56217126</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <v>134</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="2">
         <v>69092672</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <v>135</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="2">
         <v>4723665</v>
       </c>
     </row>

--- a/Senior Design Dashboard/Shelf Data.xlsx
+++ b/Senior Design Dashboard/Shelf Data.xlsx
@@ -1,75 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ortho\OneDrive - stevens.edu\Documents\GitHub\SD_Infineum\Senior Design Dashboard\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0303CBFD-2304-4C51-B13C-EC40280494FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Shelf 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Shelf 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Shelf 3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shelf 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shelf 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shelf 3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
-  <si>
-    <t>Location Number</t>
-  </si>
-  <si>
-    <t>ELN Number</t>
-  </si>
-  <si>
-    <t>Arrival Date</t>
-  </si>
-  <si>
-    <t>Experation Date</t>
-  </si>
-  <si>
-    <t>2022-01-15 00:00:00</t>
-  </si>
-  <si>
-    <t>2025-05-03 00:00:00</t>
-  </si>
-  <si>
-    <t>06606476</t>
-  </si>
-  <si>
-    <t>02995553</t>
-  </si>
-  <si>
-    <t>06071328</t>
-  </si>
-  <si>
-    <t>07336784</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -88,26 +48,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -407,531 +426,565 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col width="15.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.1796875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="12.1796875" customWidth="1" min="3" max="3"/>
+    <col width="15.90625" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Location Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ELN Number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Arrival Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Experation Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="2" t="n">
+        <v>72797667</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>43106</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>44615</v>
+      </c>
+      <c r="E2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" s="2" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>2022-01-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>2025-05-03 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>72797667</v>
-      </c>
-      <c r="C2" s="3">
-        <v>43106</v>
-      </c>
-      <c r="D2" s="3">
-        <v>44615</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>06606476</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>43151</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>12345678</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>2022-01-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>2025-05-03 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
-        <v>43151</v>
-      </c>
-      <c r="D4" s="3">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="n">
         <v>12345678</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>2022-01-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>2025-05-03 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="2" t="n">
         <v>93340412</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="3" t="n">
         <v>43280</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="n">
         <v>44882</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="2" t="n">
         <v>91113915</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="3" t="n">
         <v>43315</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="3" t="n">
         <v>45062</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="2" t="n">
         <v>19654207</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="3" t="n">
         <v>43445</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="n">
         <v>45086</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="n">
         <v>96913294</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="3" t="n">
         <v>43497</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="3" t="n">
         <v>45112</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="n">
         <v>83353735</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="3" t="n">
         <v>43557</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="n">
         <v>45156</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="2" t="n">
         <v>59163771</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="3" t="n">
         <v>43588</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="n">
         <v>45159</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="2" t="n">
         <v>710933258</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="3" t="n">
         <v>43674</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="n">
         <v>45174</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="B24" s="2" t="n"/>
+      <c r="C24" s="3" t="n"/>
+      <c r="D24" s="3" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="n">
         <v>66450098</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="3" t="n">
         <v>43803</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="3" t="n">
         <v>45215</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="2" t="n">
         <v>85204501</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="3" t="n">
         <v>43866</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="n">
         <v>45291</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="B27" s="2" t="n"/>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="B28" s="2" t="n"/>
+      <c r="C28" s="3" t="n"/>
+      <c r="D28" s="3" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="B29" s="2" t="n"/>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="B30" s="2" t="n"/>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="3" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="2" t="n">
         <v>88943269</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="3" t="n">
         <v>43923</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="n">
         <v>45525</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="2" t="n">
         <v>783102242</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="3" t="n">
         <v>43924</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="n">
         <v>45603</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="2" t="n">
         <v>33624159</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="3" t="n">
         <v>43983</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="3" t="n">
         <v>45608</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="2" t="n">
         <v>832208510</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="3" t="n">
         <v>44180</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="n">
         <v>45782</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="B36" s="2" t="n"/>
+      <c r="C36" s="3" t="n"/>
+      <c r="D36" s="3" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="B37" s="2" t="n"/>
+      <c r="C37" s="3" t="n"/>
+      <c r="D37" s="3" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="B38" s="2" t="n"/>
+      <c r="C38" s="3" t="n"/>
+      <c r="D38" s="3" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>02995553</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n">
         <v>44204</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="3" t="n">
         <v>45806</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="2" t="n">
         <v>33526741</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="3" t="n">
         <v>44253</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="3" t="n">
         <v>45818</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="2" t="n">
         <v>245710623</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="3" t="n">
         <v>44284</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="n">
         <v>45843</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="B42" s="2" t="n"/>
+      <c r="C42" s="3" t="n"/>
+      <c r="D42" s="3" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="2" t="n">
         <v>87149764</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="3" t="n">
         <v>44376</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="n">
         <v>45905</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+      <c r="B44" s="2" t="n"/>
+      <c r="C44" s="3" t="n"/>
+      <c r="D44" s="3" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+      <c r="B45" s="2" t="n"/>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" s="3" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="2" t="n">
         <v>50646162</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="3" t="n">
         <v>44501</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="n">
         <v>46001</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+    <row r="47">
+      <c r="C47" s="3" t="n"/>
+      <c r="D47" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -939,384 +992,396 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col width="15.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.1796875" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Location Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ELN Number</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="n">
         <v>83429636</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="n">
         <v>410887770</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="n">
         <v>27416929</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="n">
         <v>77913776</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="n">
         <v>48508690</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="n">
         <v>108058136</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="n">
         <v>3010222102</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>52225874</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="n">
         <v>17679963</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="n">
         <v>966122410</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="n">
         <v>74372596</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="n">
         <v>8110451060</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="n">
         <v>58195292</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>06071328</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="2" t="n">
         <v>50569869</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>07336784</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="2" t="n">
         <v>48086264</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="n">
         <v>70161182</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="2" t="n">
         <v>32071563</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="n">
         <v>75248455</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="2" t="n">
         <v>108807242</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="2" t="n">
         <v>201810199</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="2" t="n">
         <v>810864240</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="n">
         <v>72880135</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="2" t="n">
         <v>875106724</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="2" t="n">
         <v>236812107</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="2" t="n">
         <v>1574265</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>8115101043</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="2" t="n">
         <v>105272733</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="2" t="n">
         <v>97733908</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="2" t="n">
         <v>40164071</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="2" t="n">
         <v>64436428</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="2" t="n">
         <v>39391845</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="2" t="n">
         <v>88946722</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="2" t="n">
         <v>76565908</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="2" t="n">
         <v>27164662</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="2" t="n">
         <v>239131072</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="2" t="n">
         <v>18855330</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="2" t="n">
         <v>910209750</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="2" t="n">
         <v>13230077</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="2" t="n">
         <v>45341358</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="43">
+      <c r="A43" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="2" t="n">
         <v>3108231051</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="2" t="n">
         <v>893210863</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="45">
+      <c r="A45" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="2" t="n">
         <v>191855010</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="46">
+      <c r="A46" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="2" t="n">
         <v>410985681</v>
       </c>
     </row>
@@ -1326,384 +1391,392 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col width="15.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.1796875" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Location Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ELN Number</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="n">
         <v>731531081</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="n">
         <v>19990734</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="n">
         <v>84124408</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="n">
         <v>62789855</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="n">
         <v>18354489</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="n">
         <v>40642987</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="n">
         <v>5102751006</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>32513717</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="n">
         <v>35612326</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="n">
         <v>24810873</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="n">
         <v>200310798</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="n">
         <v>952107674</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="n">
         <v>501681103</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="2" t="n">
         <v>109899574</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="2" t="n">
         <v>55844176</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="2" t="n">
         <v>29410962</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="2" t="n">
         <v>759889109</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="n">
         <v>6751058108</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="2" t="n">
         <v>48965710</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="n">
         <v>83483155</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="2" t="n">
         <v>21097236</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="2" t="n">
         <v>59264803</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="2" t="n">
         <v>16884999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="n">
         <v>511041104</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="2" t="n">
         <v>7934727</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="2" t="n">
         <v>110923686</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="2" t="n">
         <v>22333701</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>109157128</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="2" t="n">
         <v>97566942</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="2" t="n">
         <v>74920873</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="2" t="n">
         <v>79895442</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="2" t="n">
         <v>43039684</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="2" t="n">
         <v>25037303</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="2" t="n">
         <v>45570387</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="2" t="n">
         <v>236321099</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="2" t="n">
         <v>66542121</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="2" t="n">
         <v>87669926</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="2" t="n">
         <v>37365614</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="2" t="n">
         <v>57193927</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="2" t="n">
         <v>61598666</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="2" t="n">
         <v>1010945649</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="43">
+      <c r="A43" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="2" t="n">
         <v>37582516</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="2" t="n">
         <v>56217126</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="45">
+      <c r="A45" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="2" t="n">
         <v>69092672</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="46">
+      <c r="A46" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="2" t="n">
         <v>4723665</v>
       </c>
     </row>
